--- a/book/wlm2021-book/data/data_sharexp/targetpositions.xlsx
+++ b/book/wlm2021-book/data/data_sharexp/targetpositions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonangelgardt/R/sharexp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonangelgardt/hseuxlab-wlm2021/book/wlm2021-book/data/data_sharexp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A47B86F-DE9F-7345-8584-746D9708F8EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D4FB31-FF9C-2745-97FA-D7BB8C0925CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{203C1F4D-97F8-364D-93F5-5446FE35F7B0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{203C1F4D-97F8-364D-93F5-5446FE35F7B0}"/>
   </bookViews>
   <sheets>
     <sheet name="poses" sheetId="2" r:id="rId1"/>
@@ -100,10 +100,10 @@
     <t>posymax2</t>
   </si>
   <si>
-    <t>numposes</t>
+    <t>numtrial</t>
   </si>
   <si>
-    <t>numposestr</t>
+    <t>numtrialtr</t>
   </si>
 </sst>
 </file>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D822CB-A82C-D148-A8F0-22E692E32BD5}">
   <dimension ref="A1:Z460"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19375,8 +19375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89565D1-D144-4445-A8F4-A228F8F47377}">
   <dimension ref="A1:M451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
